--- a/modules/log/Ревизор - Жамшид.xlsx
+++ b/modules/log/Ревизор - Жамшид.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3441,11 +3441,231 @@
         <v>26</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Ревизор - Жамшид</v>
+      </c>
+      <c r="B70" t="str">
+        <v>2451</v>
+      </c>
+      <c r="C70" t="str">
+        <v>ИП "Худайбергенов"</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Организация</v>
+      </c>
+      <c r="E70" t="str">
+        <v>б/н</v>
+      </c>
+      <c r="F70" t="str">
+        <v>76301</v>
+      </c>
+      <c r="G70" t="str">
+        <v>1494</v>
+      </c>
+      <c r="H70" t="str">
+        <v>1635</v>
+      </c>
+      <c r="I70" t="str">
+        <v>141</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K70" t="str">
+        <v>5</v>
+      </c>
+      <c r="L70" t="str">
+        <v>23</v>
+      </c>
+      <c r="M70" t="str">
+        <v>16</v>
+      </c>
+      <c r="N70" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Ревизор - Жамшид</v>
+      </c>
+      <c r="B71" t="str">
+        <v>41369</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Ип Омаров Ж</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Караб.шоссе</v>
+      </c>
+      <c r="E71" t="str">
+        <v>б/н</v>
+      </c>
+      <c r="F71" t="str">
+        <v>79214</v>
+      </c>
+      <c r="G71" t="str">
+        <v>97</v>
+      </c>
+      <c r="H71" t="str">
+        <v>116</v>
+      </c>
+      <c r="I71" t="str">
+        <v>19</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K71" t="str">
+        <v>5</v>
+      </c>
+      <c r="L71" t="str">
+        <v>23</v>
+      </c>
+      <c r="M71" t="str">
+        <v>16</v>
+      </c>
+      <c r="N71" t="str">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Ревизор - Жамшид</v>
+      </c>
+      <c r="B72" t="str">
+        <v>38290</v>
+      </c>
+      <c r="C72" t="str">
+        <v>МОЙКА 24</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Организация</v>
+      </c>
+      <c r="E72" t="str">
+        <v>б/н</v>
+      </c>
+      <c r="F72" t="str">
+        <v>81248</v>
+      </c>
+      <c r="G72" t="str">
+        <v>488</v>
+      </c>
+      <c r="H72" t="str">
+        <v>673</v>
+      </c>
+      <c r="I72" t="str">
+        <v>185</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K72" t="str">
+        <v>5</v>
+      </c>
+      <c r="L72" t="str">
+        <v>23</v>
+      </c>
+      <c r="M72" t="str">
+        <v>16</v>
+      </c>
+      <c r="N72" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Ревизор - Жамшид</v>
+      </c>
+      <c r="B73" t="str">
+        <v>17634</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Ясли сад Кайнар</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Чкалова</v>
+      </c>
+      <c r="E73" t="str">
+        <v>19.</v>
+      </c>
+      <c r="F73" t="str">
+        <v>73687</v>
+      </c>
+      <c r="G73" t="str">
+        <v>1546</v>
+      </c>
+      <c r="H73" t="str">
+        <v>1568</v>
+      </c>
+      <c r="I73" t="str">
+        <v>22</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K73" t="str">
+        <v>5</v>
+      </c>
+      <c r="L73" t="str">
+        <v>23</v>
+      </c>
+      <c r="M73" t="str">
+        <v>16</v>
+      </c>
+      <c r="N73" t="str">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Ревизор - Жамшид</v>
+      </c>
+      <c r="B74" t="str">
+        <v>41623</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Ип Зияев</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Караб.шоссе</v>
+      </c>
+      <c r="E74" t="str">
+        <v>б/н</v>
+      </c>
+      <c r="F74" t="str">
+        <v>80496</v>
+      </c>
+      <c r="G74" t="str">
+        <v>377</v>
+      </c>
+      <c r="H74" t="str">
+        <v>417</v>
+      </c>
+      <c r="I74" t="str">
+        <v>40</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K74" t="str">
+        <v>5</v>
+      </c>
+      <c r="L74" t="str">
+        <v>23</v>
+      </c>
+      <c r="M74" t="str">
+        <v>16</v>
+      </c>
+      <c r="N74" t="str">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N43"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N69"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N74"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/modules/log/Ревизор - Жамшид.xlsx
+++ b/modules/log/Ревизор - Жамшид.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3661,11 +3661,187 @@
         <v>39</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Ревизор - Жамшид</v>
+      </c>
+      <c r="B75" t="str">
+        <v>22918</v>
+      </c>
+      <c r="C75" t="str">
+        <v>ИП Имашев</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Толе би</v>
+      </c>
+      <c r="E75" t="str">
+        <v>б/н</v>
+      </c>
+      <c r="F75" t="str">
+        <v>79387</v>
+      </c>
+      <c r="G75" t="str">
+        <v>1150</v>
+      </c>
+      <c r="H75" t="str">
+        <v>1276</v>
+      </c>
+      <c r="I75" t="str">
+        <v>126</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K75" t="str">
+        <v>5</v>
+      </c>
+      <c r="L75" t="str">
+        <v>24</v>
+      </c>
+      <c r="M75" t="str">
+        <v>13</v>
+      </c>
+      <c r="N75" t="str">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Ревизор - Жамшид</v>
+      </c>
+      <c r="B76" t="str">
+        <v>39998</v>
+      </c>
+      <c r="C76" t="str">
+        <v>ИП Расулов</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Жанакурылыс (Инфра Карасу)</v>
+      </c>
+      <c r="E76" t="str">
+        <v>44</v>
+      </c>
+      <c r="F76" t="str">
+        <v>71210</v>
+      </c>
+      <c r="G76" t="str">
+        <v>392</v>
+      </c>
+      <c r="H76" t="str">
+        <v>461</v>
+      </c>
+      <c r="I76" t="str">
+        <v>69</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K76" t="str">
+        <v>5</v>
+      </c>
+      <c r="L76" t="str">
+        <v>29</v>
+      </c>
+      <c r="M76" t="str">
+        <v>14</v>
+      </c>
+      <c r="N76" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Ревизор - Жамшид</v>
+      </c>
+      <c r="B77" t="str">
+        <v>24132</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Егенбердиев Айдар</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Новостройка (Акбастау)</v>
+      </c>
+      <c r="E77" t="str">
+        <v>б/н</v>
+      </c>
+      <c r="F77" t="str">
+        <v>79658</v>
+      </c>
+      <c r="G77" t="str">
+        <v>150</v>
+      </c>
+      <c r="H77" t="str">
+        <v>233</v>
+      </c>
+      <c r="I77" t="str">
+        <v>83</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K77" t="str">
+        <v>5</v>
+      </c>
+      <c r="L77" t="str">
+        <v>29</v>
+      </c>
+      <c r="M77" t="str">
+        <v>16</v>
+      </c>
+      <c r="N77" t="str">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Ревизор - Жамшид</v>
+      </c>
+      <c r="B78" t="str">
+        <v>24138</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Ташимова Тенгекуль</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Новостройка (Акбастау)</v>
+      </c>
+      <c r="E78" t="str">
+        <v>б/н</v>
+      </c>
+      <c r="F78" t="str">
+        <v>27451</v>
+      </c>
+      <c r="G78" t="str">
+        <v>1553</v>
+      </c>
+      <c r="H78" t="str">
+        <v>1753</v>
+      </c>
+      <c r="I78" t="str">
+        <v>200</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K78" t="str">
+        <v>5</v>
+      </c>
+      <c r="L78" t="str">
+        <v>29</v>
+      </c>
+      <c r="M78" t="str">
+        <v>16</v>
+      </c>
+      <c r="N78" t="str">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N43"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N74"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N78"/>
   </ignoredErrors>
 </worksheet>
 </file>